--- a/data/trans_orig/IP1014-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1014-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF0EB5F0-8FA0-499F-894B-75F612469C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{744749CD-39AC-42FD-881A-2B3425C0955A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{464EBC9A-6B57-4C5A-BF1B-7619293F49C5}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9AFF3578-44D5-46DD-BF6D-9E321A7E9787}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -118,6 +118,51 @@
     <t>1,25%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -151,51 +196,6 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
@@ -277,6 +277,30 @@
     <t>1,03%</t>
   </si>
   <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
     <t>99,05%</t>
   </si>
   <si>
@@ -307,30 +331,6 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
     <t>98,72%</t>
   </si>
   <si>
@@ -382,28 +382,28 @@
     <t>1,86%</t>
   </si>
   <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>99,49%</t>
-  </si>
-  <si>
     <t>99,39%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
     <t>0,61%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
   </si>
   <si>
     <t>99,23%</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705D96C2-65CA-424A-B1A7-455B37F21742}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B92FB5-26DA-4A15-AF55-9187F82CAEC3}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1092,10 +1092,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>421</v>
+        <v>328</v>
       </c>
       <c r="D7" s="7">
-        <v>280856</v>
+        <v>216662</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1107,34 +1107,34 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>394</v>
+        <v>303</v>
       </c>
       <c r="I7" s="7">
-        <v>265603</v>
+        <v>204580</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M7" s="7">
-        <v>815</v>
+        <v>631</v>
       </c>
       <c r="N7" s="7">
-        <v>546459</v>
+        <v>421242</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1143,49 +1143,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>642</v>
+        <v>1379</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>642</v>
+        <v>2021</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1194,10 +1194,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1209,10 +1209,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -1224,10 +1224,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -1241,55 +1241,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>328</v>
+        <v>421</v>
       </c>
       <c r="D10" s="7">
-        <v>216662</v>
+        <v>280856</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>303</v>
+        <v>394</v>
       </c>
       <c r="I10" s="7">
-        <v>204580</v>
+        <v>265603</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="7">
+        <v>815</v>
+      </c>
+      <c r="N10" s="7">
+        <v>546459</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>631</v>
-      </c>
-      <c r="N10" s="7">
-        <v>421242</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1298,46 +1298,46 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1379</v>
+        <v>642</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="7">
+      <c r="N11" s="7">
         <v>642</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="O11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2021</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>51</v>
@@ -1349,10 +1349,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -1364,10 +1364,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -1379,10 +1379,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BF495C-B415-4FBB-B90F-014FB1AB9378}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F31836-9671-4CA3-8AC4-ADFE2D203E0C}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1838,10 +1838,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="D7" s="7">
-        <v>267783</v>
+        <v>238773</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>79</v>
@@ -1850,37 +1850,37 @@
         <v>80</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>317</v>
+      </c>
+      <c r="I7" s="7">
+        <v>226839</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="7">
-        <v>362</v>
-      </c>
-      <c r="I7" s="7">
-        <v>254202</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M7" s="7">
-        <v>756</v>
+        <v>647</v>
       </c>
       <c r="N7" s="7">
-        <v>521985</v>
+        <v>465613</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>82</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,49 +1889,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>2571</v>
+        <v>1327</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1339</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>2571</v>
+        <v>2665</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,10 +1940,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1955,10 +1955,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -1970,10 +1970,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -1987,55 +1987,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="D10" s="7">
-        <v>238773</v>
+        <v>267783</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>362</v>
+      </c>
+      <c r="I10" s="7">
+        <v>254202</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="7">
+        <v>756</v>
+      </c>
+      <c r="N10" s="7">
+        <v>521985</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>317</v>
-      </c>
-      <c r="I10" s="7">
-        <v>226839</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>647</v>
-      </c>
-      <c r="N10" s="7">
-        <v>465613</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,46 +2044,46 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>1327</v>
+        <v>2571</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>94</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1339</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>2665</v>
+        <v>2571</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>96</v>
@@ -2095,10 +2095,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -2110,10 +2110,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -2125,10 +2125,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -2154,7 +2154,7 @@
         <v>743451</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>97</v>
@@ -2205,7 +2205,7 @@
         <v>4691</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>103</v>
@@ -2311,7 +2311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F618CF91-3CC0-4ACE-8AE1-F0AB8A8D77D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124A6F5F-BB4C-47C4-83D2-AC053B33E04E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2584,46 +2584,46 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="D7" s="7">
-        <v>280967</v>
+        <v>249434</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I7" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7">
+        <v>722</v>
+      </c>
+      <c r="N7" s="7">
+        <v>484767</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="7">
-        <v>755</v>
-      </c>
-      <c r="N7" s="7">
-        <v>548737</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2638,16 +2638,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>662</v>
+        <v>618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2662,22 +2662,22 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>662</v>
+        <v>618</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,10 +2686,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -2701,10 +2701,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -2716,10 +2716,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -2733,52 +2733,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="D10" s="7">
-        <v>249434</v>
+        <v>280967</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I10" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>722</v>
+        <v>755</v>
       </c>
       <c r="N10" s="7">
-        <v>484767</v>
+        <v>548737</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2793,16 +2793,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>618</v>
+        <v>662</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2817,22 +2817,22 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>618</v>
+        <v>662</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,10 +2841,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -2856,10 +2856,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -2871,10 +2871,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>

--- a/data/trans_orig/IP1014-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1014-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{744749CD-39AC-42FD-881A-2B3425C0955A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B08909FC-B6D3-48C8-ACA2-74F70E8A3704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9AFF3578-44D5-46DD-BF6D-9E321A7E9787}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E2E9AF40-9F9A-4241-8783-0D9CDE4F5254}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="152">
   <si>
     <t>Menores según si padecen defectos del habla en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,367 +67,433 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>99,4%</t>
+    <t>98,82%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen defectos del habla en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
     <t>98,7%</t>
   </si>
   <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen defectos del habla en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
   </si>
   <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen defectos del habla en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen defectos del habla en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
     <t>99,96%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
   </si>
 </sst>
 </file>
@@ -438,7 +504,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -534,39 +600,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -618,7 +684,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -729,13 +795,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -744,6 +803,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -808,19 +874,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B92FB5-26DA-4A15-AF55-9187F82CAEC3}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AB3003-43D9-46D6-B6B3-5E6D7320B003}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +1023,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>332</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>221783</v>
+        <v>705</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>210196</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -967,19 +1053,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>652</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>431979</v>
+        <v>705</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -988,10 +1074,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="D5" s="7">
-        <v>1378</v>
+        <v>120675</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1003,13 +1089,13 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>106171</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
@@ -1018,19 +1104,19 @@
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>343</v>
       </c>
       <c r="N5" s="7">
-        <v>1378</v>
+        <v>226846</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1039,49 +1125,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1092,40 +1178,40 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>328</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>216662</v>
+        <v>1374</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>204580</v>
+        <v>642</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>631</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>421242</v>
+        <v>2015</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>31</v>
@@ -1143,40 +1229,40 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>380</v>
       </c>
       <c r="D8" s="7">
-        <v>1379</v>
+        <v>252382</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>378</v>
       </c>
       <c r="I8" s="7">
-        <v>642</v>
+        <v>252563</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>758</v>
       </c>
       <c r="N8" s="7">
-        <v>2021</v>
+        <v>504946</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>38</v>
@@ -1194,49 +1280,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1247,49 +1333,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>280856</v>
+        <v>679</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>265603</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M10" s="7">
-        <v>815</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>546459</v>
+        <v>679</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1298,49 +1384,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="D11" s="7">
-        <v>642</v>
+        <v>140836</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7">
+        <v>191</v>
+      </c>
+      <c r="I11" s="7">
+        <v>127548</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="7">
+        <v>402</v>
+      </c>
+      <c r="N11" s="7">
+        <v>268384</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>642</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1349,102 +1435,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1081</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>719301</v>
+        <v>642</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>642</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I13" s="7">
-        <v>680379</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2098</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1399680</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,49 +1539,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>309</v>
       </c>
       <c r="D14" s="7">
-        <v>3399</v>
+        <v>205407</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>286</v>
       </c>
       <c r="I14" s="7">
-        <v>642</v>
+        <v>194097</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>595</v>
       </c>
       <c r="N14" s="7">
-        <v>4041</v>
+        <v>399504</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,55 +1590,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3399</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>642</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4041</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1081</v>
+      </c>
+      <c r="D17" s="7">
+        <v>719301</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1017</v>
+      </c>
+      <c r="I17" s="7">
+        <v>680379</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2098</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1399680</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
+      <c r="O18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1565,8 +1812,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F31836-9671-4CA3-8AC4-ADFE2D203E0C}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CFEE2F-456D-4F67-ABBA-93D8A33EB293}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1582,7 +1829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1683,49 +1930,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>236895</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="H4" s="7">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>224548</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="M4" s="7">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>461443</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,49 +1981,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="D5" s="7">
-        <v>793</v>
+        <v>144513</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>146281</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>423</v>
       </c>
       <c r="N5" s="7">
-        <v>793</v>
+        <v>290794</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,49 +2032,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,49 +2085,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>330</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>238773</v>
+        <v>1447</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1339</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>317</v>
-      </c>
-      <c r="I7" s="7">
-        <v>226839</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>647</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>465613</v>
+        <v>2786</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,49 +2136,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>369</v>
       </c>
       <c r="D8" s="7">
-        <v>1327</v>
+        <v>265654</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>335</v>
       </c>
       <c r="I8" s="7">
-        <v>1339</v>
+        <v>233137</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>704</v>
       </c>
       <c r="N8" s="7">
-        <v>2665</v>
+        <v>498790</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,49 +2187,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,49 +2240,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>267783</v>
+        <v>1362</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H10" s="7">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>254202</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
-        <v>756</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>521985</v>
+        <v>1362</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,49 +2291,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>226</v>
       </c>
       <c r="D11" s="7">
-        <v>2571</v>
+        <v>157209</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>154834</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>446</v>
       </c>
       <c r="N11" s="7">
-        <v>2571</v>
+        <v>312043</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,102 +2342,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1059</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>743451</v>
+        <v>1883</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" s="7">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1883</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I13" s="7">
-        <v>705589</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2075</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1449040</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,49 +2446,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>259</v>
       </c>
       <c r="D14" s="7">
-        <v>4691</v>
+        <v>176074</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="7">
+        <v>243</v>
+      </c>
+      <c r="I14" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="7">
+        <v>502</v>
+      </c>
+      <c r="N14" s="7">
+        <v>347411</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1339</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6030</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,55 +2497,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4691</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1339</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" s="7">
+        <v>9</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6030</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1059</v>
+      </c>
+      <c r="D17" s="7">
+        <v>743451</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="I17" s="7">
+        <v>705589</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2075</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1449040</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1066</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>748142</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="7">
         <v>2084</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1455070</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
+      <c r="O18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2311,8 +2719,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124A6F5F-BB4C-47C4-83D2-AC053B33E04E}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CF09F6-0E50-45CC-830C-934501CF312E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2328,7 +2736,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2429,49 +2837,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>212448</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>201268</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>413716</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,49 +2888,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>715</v>
+        <v>124164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>131654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>398</v>
       </c>
       <c r="N5" s="7">
-        <v>715</v>
+        <v>255818</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,49 +2939,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,49 +2992,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>362</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>249434</v>
+        <v>715</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>235333</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>722</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>484767</v>
+        <v>715</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,49 +3043,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>379</v>
       </c>
       <c r="D8" s="7">
-        <v>618</v>
+        <v>257346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>210517</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>711</v>
       </c>
       <c r="N8" s="7">
-        <v>618</v>
+        <v>467863</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,49 +3094,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,49 +3147,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>380</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>280967</v>
+        <v>1280</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="H10" s="7">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>267770</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
-        <v>755</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>548737</v>
+        <v>1280</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,49 +3198,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="D11" s="7">
-        <v>662</v>
+        <v>187292</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>188899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>533</v>
       </c>
       <c r="N11" s="7">
-        <v>662</v>
+        <v>376191</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,102 +3249,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1062</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>742849</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
-        <v>1061</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>704371</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
-        <v>2123</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>1447220</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,49 +3353,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7">
-        <v>1995</v>
+        <v>174048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>173301</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>481</v>
       </c>
       <c r="N14" s="7">
-        <v>1995</v>
+        <v>347348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,55 +3404,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1995</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1995</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1062</v>
+      </c>
+      <c r="D17" s="7">
+        <v>742849</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1061</v>
+      </c>
+      <c r="I17" s="7">
+        <v>704371</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2123</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1447220</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
+      <c r="O18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1014-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1014-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B08909FC-B6D3-48C8-ACA2-74F70E8A3704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A7F113-F902-4093-9933-65B816BF14E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E2E9AF40-9F9A-4241-8783-0D9CDE4F5254}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4FFF038-44AC-4F32-AC1D-0233CBC86B45}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,12%</t>
+    <t>2,43%</t>
   </si>
   <si>
     <t>0%</t>
@@ -100,7 +100,7 @@
     <t>99,42%</t>
   </si>
   <si>
-    <t>96,88%</t>
+    <t>97,57%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -124,7 +124,7 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>1,87%</t>
+    <t>1,91%</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -136,16 +136,13 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>0,1%</t>
   </si>
   <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>98,13%</t>
+    <t>98,09%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -157,10 +154,7 @@
     <t>99,6%</t>
   </si>
   <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
+    <t>99,9%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -169,328 +163,334 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,42%</t>
+    <t>2,13%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen defectos del habla en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen defectos del habla en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>0,47%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen defectos del habla en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen defectos del habla en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
+    <t>99,67%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -905,7 +905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AB3003-43D9-46D6-B6B3-5E6D7320B003}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5ADCCBA-A760-4B7A-8E8F-9A66E50541D6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1220,7 +1220,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1235,10 +1235,10 @@
         <v>252382</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -1250,10 +1250,10 @@
         <v>252563</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -1265,13 +1265,13 @@
         <v>504946</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1327,7 +1327,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1339,13 +1339,13 @@
         <v>679</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1375,7 +1375,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1390,10 +1390,10 @@
         <v>140836</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -1408,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -1420,10 +1420,10 @@
         <v>268384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1500,7 +1500,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1524,13 +1524,13 @@
         <v>642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,7 +1548,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1563,7 +1563,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -1575,10 +1575,10 @@
         <v>399504</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -1649,13 +1649,13 @@
         <v>3399</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1664,13 +1664,13 @@
         <v>642</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -1679,10 +1679,10 @@
         <v>4041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -1700,13 +1700,13 @@
         <v>719301</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>1017</v>
@@ -1715,10 +1715,10 @@
         <v>680379</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -1730,13 +1730,13 @@
         <v>1399680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1792,7 +1792,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CFEE2F-456D-4F67-ABBA-93D8A33EB293}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E3C290-4C31-4DCA-A881-166B3821DD7E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1829,7 +1829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1942,7 +1942,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,7 +1990,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2005,7 +2005,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -2020,7 +2020,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -2097,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2106,13 +2106,13 @@
         <v>1339</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2121,13 +2121,13 @@
         <v>2786</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,10 +2142,10 @@
         <v>265654</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -2157,10 +2157,10 @@
         <v>233137</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2172,13 +2172,13 @@
         <v>498790</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,7 +2234,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2246,13 +2246,13 @@
         <v>1362</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2276,13 +2276,13 @@
         <v>1362</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,10 +2297,10 @@
         <v>157209</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -2315,7 +2315,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -2327,10 +2327,10 @@
         <v>312043</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2401,13 +2401,13 @@
         <v>1883</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2434,10 +2434,10 @@
         <v>27</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,13 +2452,13 @@
         <v>176074</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -2470,7 +2470,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -2482,13 +2482,13 @@
         <v>347411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2556,13 @@
         <v>4691</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2571,13 +2571,13 @@
         <v>1339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2586,13 +2586,13 @@
         <v>6030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,13 +2607,13 @@
         <v>743451</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>1016</v>
@@ -2622,10 +2622,10 @@
         <v>705589</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -2637,13 +2637,13 @@
         <v>1449040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,7 +2699,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2719,7 +2719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CF09F6-0E50-45CC-830C-934501CF312E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038D8BC6-24DB-4F28-BD03-752608B50EE6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2736,7 +2736,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2849,7 +2849,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2864,7 +2864,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,7 +2897,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2912,7 +2912,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -2927,7 +2927,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -2998,13 +2998,13 @@
         <v>715</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         <v>715</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,10 +3049,10 @@
         <v>257346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -3079,10 +3079,10 @@
         <v>467863</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3153,13 +3153,13 @@
         <v>1280</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3183,13 +3183,13 @@
         <v>1280</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,10 +3204,10 @@
         <v>187292</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -3222,7 +3222,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -3234,10 +3234,10 @@
         <v>376191</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3314,7 +3314,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -3377,7 +3377,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -3392,7 +3392,7 @@
         <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>23</v>
@@ -3463,13 +3463,13 @@
         <v>1995</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3493,13 +3493,13 @@
         <v>1995</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3514,13 @@
         <v>742849</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
         <v>1061</v>
@@ -3532,7 +3532,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>23</v>
@@ -3544,10 +3544,10 @@
         <v>1447220</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>151</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1014-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1014-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A7F113-F902-4093-9933-65B816BF14E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63CFC3EE-55F3-4ABF-922E-6EA7A9C6D174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4FFF038-44AC-4F32-AC1D-0233CBC86B45}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1204C716-128C-4B1D-B364-5761A7D838DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="158">
   <si>
     <t>Menores según si padecen defectos del habla en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,235 +73,253 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>2,88%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,56%</t>
+    <t>1,73%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>97,12%</t>
   </si>
   <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,44%</t>
+    <t>98,27%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>0,25%</t>
+  </si>
+  <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>1,9%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>0,1%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>98,1%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>99,9%</t>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
     <t>0,67%</t>
   </si>
   <si>
+    <t>1,57%</t>
+  </si>
+  <si>
     <t>0,16%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>98,45%</t>
-  </si>
-  <si>
     <t>99,33%</t>
   </si>
   <si>
+    <t>98,43%</t>
+  </si>
+  <si>
     <t>99,84%</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
     <t>0,47%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>1,04%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>98,97%</t>
+    <t>98,96%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>99,91%</t>
-  </si>
-  <si>
     <t>99,71%</t>
   </si>
   <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si padecen defectos del habla en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>0,88%</t>
+  </si>
+  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
+    <t>99,12%</t>
+  </si>
+  <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
     <t>0,57%</t>
   </si>
   <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>1,39%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>2,54%</t>
   </si>
   <si>
     <t>0,43%</t>
@@ -310,13 +328,13 @@
     <t>1,52%</t>
   </si>
   <si>
+    <t>99,13%</t>
+  </si>
+  <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>97,46%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -325,34 +343,34 @@
     <t>98,48%</t>
   </si>
   <si>
-    <t>1,06%</t>
+    <t>0,79%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
   </si>
   <si>
     <t>0,63%</t>
@@ -364,133 +382,133 @@
     <t>1,28%</t>
   </si>
   <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,41%</t>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen defectos del habla en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>0,81%</t>
   </si>
   <si>
     <t>99,22%</t>
   </si>
   <si>
-    <t>Menores según si padecen defectos del habla en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>99,58%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -905,7 +923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5ADCCBA-A760-4B7A-8E8F-9A66E50541D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AC7B9A-612A-450B-B46A-C5D74E37CF77}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1023,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1038,16 +1056,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1062,7 +1080,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1074,10 +1092,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>120675</v>
+        <v>106171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1089,19 +1107,19 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="I5" s="7">
-        <v>106171</v>
+        <v>120675</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>343</v>
@@ -1116,7 +1134,7 @@
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1125,34 +1143,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>344</v>
@@ -1161,13 +1179,13 @@
         <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1178,34 +1196,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1374</v>
+        <v>642</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1374</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>642</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -1214,13 +1232,13 @@
         <v>2015</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1229,34 +1247,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D8" s="7">
-        <v>252382</v>
+        <v>252563</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>380</v>
+      </c>
+      <c r="I8" s="7">
+        <v>252382</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="7">
-        <v>378</v>
-      </c>
-      <c r="I8" s="7">
-        <v>252563</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>758</v>
@@ -1265,10 +1283,10 @@
         <v>504946</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>38</v>
@@ -1280,34 +1298,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>761</v>
@@ -1316,13 +1334,13 @@
         <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1333,31 +1351,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>679</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>679</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>42</v>
@@ -1369,10 +1387,10 @@
         <v>679</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>43</v>
@@ -1384,34 +1402,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>191</v>
+      </c>
+      <c r="D11" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7">
         <v>211</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>140836</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7">
-        <v>191</v>
-      </c>
-      <c r="I11" s="7">
-        <v>127548</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>402</v>
@@ -1420,13 +1438,13 @@
         <v>268384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1435,34 +1453,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>403</v>
@@ -1471,13 +1489,13 @@
         <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1488,13 +1506,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
@@ -1503,16 +1521,16 @@
         <v>49</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>50</v>
@@ -1527,7 +1545,7 @@
         <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>52</v>
@@ -1539,13 +1557,13 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="D14" s="7">
-        <v>205407</v>
+        <v>194097</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>53</v>
@@ -1554,19 +1572,19 @@
         <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="I14" s="7">
-        <v>194097</v>
+        <v>205407</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>595</v>
@@ -1581,7 +1599,7 @@
         <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,34 +1608,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>596</v>
@@ -1626,13 +1644,13 @@
         <v>400146</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,34 +1661,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>3399</v>
+        <v>642</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3399</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>642</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -1679,13 +1697,13 @@
         <v>4041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,34 +1712,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>1017</v>
+      </c>
+      <c r="D17" s="7">
+        <v>680379</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
         <v>1081</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>719301</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I17" s="7">
-        <v>680379</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>2098</v>
@@ -1730,13 +1748,13 @@
         <v>1399680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,34 +1763,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>2104</v>
@@ -1781,18 +1799,18 @@
         <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E3C290-4C31-4DCA-A881-166B3821DD7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8D33BA-E50D-4969-B751-4FF142842DEA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1829,7 +1847,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1936,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1951,13 +1969,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1966,13 +1984,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,34 +1999,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>218</v>
+      </c>
+      <c r="D5" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
         <v>205</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>144513</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>218</v>
-      </c>
-      <c r="I5" s="7">
-        <v>146281</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>423</v>
@@ -2017,13 +2035,13 @@
         <v>290794</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,34 +2050,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>423</v>
@@ -2068,13 +2086,13 @@
         <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,31 +2106,31 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1447</v>
+        <v>1339</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1339</v>
+        <v>1447</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2121,13 +2139,13 @@
         <v>2786</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,34 +2154,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>335</v>
+      </c>
+      <c r="D8" s="7">
+        <v>233137</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>369</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>265654</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="7">
-        <v>335</v>
-      </c>
-      <c r="I8" s="7">
-        <v>233137</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>704</v>
@@ -2172,13 +2190,13 @@
         <v>498790</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,34 +2205,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>708</v>
@@ -2223,13 +2241,13 @@
         <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,34 +2258,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1362</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>1362</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2276,13 +2294,13 @@
         <v>1362</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,34 +2309,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>220</v>
+      </c>
+      <c r="D11" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7">
         <v>226</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>157209</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7">
-        <v>220</v>
-      </c>
-      <c r="I11" s="7">
-        <v>154834</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>446</v>
@@ -2327,13 +2345,13 @@
         <v>312043</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,34 +2360,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>448</v>
@@ -2378,13 +2396,13 @@
         <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,34 +2413,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1883</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2431,13 +2449,13 @@
         <v>1883</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,34 +2464,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>243</v>
+      </c>
+      <c r="D14" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
         <v>259</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>176074</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="7">
-        <v>243</v>
-      </c>
-      <c r="I14" s="7">
-        <v>171337</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="M14" s="7">
         <v>502</v>
@@ -2482,13 +2500,13 @@
         <v>347411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,34 +2515,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>505</v>
@@ -2533,13 +2551,13 @@
         <v>349294</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,34 +2568,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1339</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="7">
         <v>7</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>4691</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1339</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2586,13 +2604,13 @@
         <v>6030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,34 +2619,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="D17" s="7">
+        <v>705589</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
         <v>1059</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>743451</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I17" s="7">
-        <v>705589</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>2075</v>
@@ -2637,13 +2655,13 @@
         <v>1449040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,34 +2670,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>1066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748142</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>2084</v>
@@ -2688,18 +2706,18 @@
         <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2719,7 +2737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038D8BC6-24DB-4F28-BD03-752608B50EE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546494AF-F5B0-4DD8-8785-9DC5637F6DD8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2736,7 +2754,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2843,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2858,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2873,13 +2891,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,34 +2906,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>211</v>
+      </c>
+      <c r="D5" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
         <v>187</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>124164</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>211</v>
-      </c>
-      <c r="I5" s="7">
-        <v>131654</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>398</v>
@@ -2924,13 +2942,13 @@
         <v>255818</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,34 +2957,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>398</v>
@@ -2975,13 +2993,13 @@
         <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,34 +3010,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3028,13 +3046,13 @@
         <v>715</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,34 +3061,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>332</v>
+      </c>
+      <c r="D8" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
         <v>379</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>257346</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="7">
-        <v>332</v>
-      </c>
-      <c r="I8" s="7">
-        <v>210517</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>711</v>
@@ -3079,13 +3097,13 @@
         <v>467863</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,34 +3112,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>712</v>
@@ -3130,13 +3148,13 @@
         <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,34 +3165,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1280</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>1280</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3183,13 +3201,13 @@
         <v>1280</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,34 +3216,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>272</v>
+      </c>
+      <c r="D11" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7">
         <v>261</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>187292</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7">
-        <v>272</v>
-      </c>
-      <c r="I11" s="7">
-        <v>188899</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>533</v>
@@ -3234,13 +3252,13 @@
         <v>376191</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,34 +3267,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>535</v>
@@ -3285,13 +3303,13 @@
         <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3323,13 +3341,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3338,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,34 +3371,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>246</v>
+      </c>
+      <c r="D14" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
         <v>235</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>174048</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="7">
-        <v>246</v>
-      </c>
-      <c r="I14" s="7">
-        <v>173301</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>481</v>
@@ -3389,13 +3407,13 @@
         <v>347348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,34 +3422,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>481</v>
@@ -3440,13 +3458,13 @@
         <v>347348</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,34 +3475,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1995</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3493,13 +3511,13 @@
         <v>1995</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,34 +3526,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D17" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="7">
         <v>1062</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>742849</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I17" s="7">
-        <v>704371</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>2123</v>
@@ -3544,13 +3562,13 @@
         <v>1447220</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,34 +3577,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>2126</v>
@@ -3595,18 +3613,18 @@
         <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
